--- a/nr-add-numero-am/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/nr-add-numero-am/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T09:29:04+00:00</t>
+    <t>2026-01-12T10:01:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5490,7 +5490,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
